--- a/data/Ecological Niche/pOTU_tax_information_Jan24.xlsx
+++ b/data/Ecological Niche/pOTU_tax_information_Jan24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieledeangelis/Work/Ricerca/ATLANTECO/Picozoa/NEW_PZ_DATA_AUG23/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulahuber/Documents/ESLOph/Picozoa/Paper/Picozoa_Huber_etal/Picozoa_Huber_etal_github/picozoa_distribution/data/Ecological Niche/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB9CD432-20C1-8546-A04E-08646B4B6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA09213-E576-4F4B-B3F5-B81EE41D1084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="580" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28800" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -929,18 +929,21 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1198,8 +1201,8 @@
   </sheetPr>
   <dimension ref="A1:Z139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
